--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>福耀玻璃-(600660)</t>
   </si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t>上证指数-(SH000001)</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>2012-06-29</t>
@@ -239,26 +239,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -273,35 +269,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -589,86 +576,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>6.124</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4.084</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>13.17</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>4.531</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>11.246</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>2.348</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>173.745</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>5.611</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>3.367</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>13.299</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>2225.43</v>
       </c>
     </row>
@@ -676,37 +669,37 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5.803</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3.764</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>12.232</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4.012</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>11.069</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2.177</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>181.86</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>5.611</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>3.27</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>13.271</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2103.63</v>
       </c>
     </row>
@@ -714,37 +707,37 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5.553</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3.745</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>9.295</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>3.442</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>11.101</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1.941</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>162.172</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>5.025</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>3.278</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>12.804</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>2047.52</v>
       </c>
     </row>
@@ -752,37 +745,37 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>5.514</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3.85</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>12.214</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3.429</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>10.935</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1.941</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>181.388</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>5.194</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>3.572</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>13.342</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>2086.17</v>
       </c>
     </row>
@@ -790,37 +783,37 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>5.498</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.655</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>11.568</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>3.381</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>10.592</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1.95</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>182.524</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>5.03</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>3.394</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>14.346</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>2068.88</v>
       </c>
     </row>
@@ -828,37 +821,37 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>5.631</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3.145</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>9.987</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3.239</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>10.416</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>1.903</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>159.404</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>4.27</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>3.207</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>12.182</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>1980.12</v>
       </c>
     </row>
@@ -866,37 +859,37 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>6.868</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3.412</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>13.849</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>3.713</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>11.536</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1.903</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>154.246</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>4.737</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>3.412</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>12.922</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>2269.13</v>
       </c>
     </row>
@@ -904,37 +897,37 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>6.539</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.526</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>13.768</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>4.122</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>12.314</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>2.045</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>132.019</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>6.043</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>3.448</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>13.153</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>2385.42</v>
       </c>
     </row>
@@ -942,37 +935,37 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>6.532</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>3.793</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>14.478</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3.964</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>12.231</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>2.035</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>129.141</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>6.048</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>3.296</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>13.789</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>2365.59</v>
       </c>
     </row>
@@ -980,37 +973,37 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>6.351</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3.507</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>11.72</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3.404</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>12.462</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>1.931</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>124.61</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>5.78</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>3.091</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>15.543</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>2236.62</v>
       </c>
     </row>
@@ -1018,37 +1011,37 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>6.391</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>3.364</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>11.81</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3.265</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>11.694</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1.931</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>128.396</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>5.412</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>2.789</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>14.529</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>2177.91</v>
       </c>
     </row>
@@ -1056,37 +1049,37 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>7.056</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>4.289</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>12.699</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>3.378</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>12.629</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1.931</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>145.45</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>6.018</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>2.744</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>15.407</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>2300.59</v>
       </c>
     </row>
@@ -1094,37 +1087,37 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>5.963</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>4.09</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>9.951000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>2.56</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>11.036</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1.524</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>146.622</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>5.244</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>2.12</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>13.911</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>1979.21</v>
       </c>
     </row>
@@ -1132,37 +1125,37 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>5.921</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>3.593</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>10.774</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>2.44</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>11.407</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1.496</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>128.428</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>5.164</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>2.263</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>14.335</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>1993.8</v>
       </c>
     </row>
@@ -1170,37 +1163,37 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>6.244</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>3.628</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>10.765</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>2.639</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>15.195</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>1.657</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>128.642</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>5.442</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>2.449</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>17.78</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>2098.38</v>
       </c>
     </row>
@@ -1208,37 +1201,37 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>7.099</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>3.822</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>10.783</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>2.7</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>14.414</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>1.742</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>103.612</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>5.492</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>2.412</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>19.743</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>2174.67</v>
       </c>
     </row>
@@ -1246,37 +1239,37 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>6.974</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3.638</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>10.51</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>2.57</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>14.099</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>1.751</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>102.979</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>4.966</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>2.291</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>17.122</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>2141.61</v>
       </c>
     </row>
@@ -1284,37 +1277,37 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>7.123</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>3.966</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>11.502</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>2.603</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>14.366</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>1.761</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>107.804</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>5.383</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>2.272</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>16.641</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>2220.5</v>
       </c>
     </row>
@@ -1322,37 +1315,37 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>6.875</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>3.832</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>11.356</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>2.482</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>13.642</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>1.657</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>5.422</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>2.143</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>16.627</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>2115.98</v>
       </c>
     </row>
@@ -1360,37 +1353,37 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>6.361</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>4.115</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>10.455</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>2.244</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>12.718</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>1.572</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>100.761</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>5.164</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>2.078</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>16.031</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>2033.08</v>
       </c>
     </row>
@@ -1398,37 +1391,37 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>6.518</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>4.16</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>9.782</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>2.267</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>12.222</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1.553</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>114.343</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>5.293</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>2.208</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>18.075</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>2056.3</v>
       </c>
     </row>
@@ -1436,37 +1429,37 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>6.85</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>3.951</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>8.99</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>2.179</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>11.975</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>1.59</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>117.91</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>5.641</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>2.087</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>15.841</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>2033.31</v>
       </c>
     </row>
@@ -1474,37 +1467,37 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>6.974</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>4.16</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>9.244999999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>2.153</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>12.604</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>1.572</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>124.907</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>5.115</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>2.059</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>15.593</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>2026.36</v>
       </c>
     </row>
@@ -1512,37 +1505,37 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>7.185</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>4.358</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>9.209</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>2.228</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>12.699</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>1.609</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>116.782</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>5.333</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>2.031</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>15.141</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>2039.21</v>
       </c>
     </row>
@@ -1550,37 +1543,37 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>7.396</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4.461</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>8.917</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>2.234</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>12.289</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>1.619</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>122.305</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>5.651</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>2.022</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>15.938</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2048.33</v>
       </c>
     </row>
@@ -1588,37 +1581,37 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>8.576000000000001</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>5.101</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>9.855</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>2.641</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>13.051</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>1.804</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>138.06</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>6.287</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>2.319</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>16.286</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>2201.56</v>
       </c>
     </row>
@@ -1626,37 +1619,37 @@
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>8.795999999999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>5.14</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>9.502000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>2.595</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>13.202</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>1.843</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>136.303</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>6.287</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>2.194</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>18.08</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>2217.2</v>
       </c>
     </row>
@@ -1664,37 +1657,37 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>9.263</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>5.756</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>10.17</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>2.942</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>14.662</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>2.549</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>139.662</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>7.415</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>2.387</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>18.268</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>2363.87</v>
       </c>
     </row>
@@ -1702,37 +1695,37 @@
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>9.378</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>5.701</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>10.793</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>2.856</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>15.149</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>2.559</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>134.968</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>7.216</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>2.531</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>18.191</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>2420.18</v>
       </c>
     </row>
@@ -1740,37 +1733,37 @@
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>9.994</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>5.787</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>16.635</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>3.379</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>16.921</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>2.853</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>134.244</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>7.675</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>2.695</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>20.29</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>2682.83</v>
       </c>
     </row>
@@ -1778,37 +1771,37 @@
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>10.69</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>5.577</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>24.102</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>4.954</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>19.102</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>4.951</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>163.343</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>6.816</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>3.253</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>21.419</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>3234.68</v>
       </c>
     </row>
@@ -1816,37 +1809,37 @@
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>11.658</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>5.74</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>20.341</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>3.928</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>19.851</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>4.039</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>152.627</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>7.126</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>3.455</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>22.224</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>3210.36</v>
       </c>
     </row>
@@ -1854,37 +1847,37 @@
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>13.111</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>6.325</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>21.957</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>4.468</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>20.542</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>4.549</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>164.575</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>7.066</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>3.416</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>24.337</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>3310.3</v>
       </c>
     </row>
@@ -1892,37 +1885,37 @@
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>14.731</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>7.768</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>25.913</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>5.063</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>23.502</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>5.499</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>168.804</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>9.531000000000001</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>4.157</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>24.337</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>3747.9</v>
       </c>
     </row>
@@ -1930,37 +1923,37 @@
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>14.365</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>9.156000000000001</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>26.201</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>4.868</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>26.9</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>10.813</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>217.277</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>13.383</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>4.157</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>24.337</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>4441.65</v>
       </c>
     </row>
@@ -1968,37 +1961,37 @@
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>15.09</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10.677</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>24.167</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>4.852</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>29.198</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>8.430999999999999</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>227.269</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>15.2</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>6.708</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>24.337</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>4611.74</v>
       </c>
     </row>
@@ -2006,37 +1999,37 @@
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>13.115</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>21.192</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>4.407</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>30.862</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>7.088</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>221.945</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>12.01</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>4.927</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>31.983</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>4277.22</v>
       </c>
     </row>
@@ -2044,37 +2037,37 @@
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>12.188</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>17.449</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>3.66</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>27.513</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>6.855</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>199.449</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>10.53</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>3.945</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>30.123</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>3663.73</v>
       </c>
     </row>
@@ -2082,37 +2075,37 @@
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>11.159</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>7.26</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>12.594</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>4.334</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>26.857</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>6.855</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>188.398</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>10.77</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>3.502</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>25.813</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>3205.99</v>
       </c>
     </row>
@@ -2120,37 +2113,37 @@
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>10.884</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>7.26</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>12.257</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>4.068</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>27.31</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>6.855</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>183.519</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>10.77</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>3.325</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>25.4</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>3052.78</v>
       </c>
     </row>
@@ -2158,37 +2151,37 @@
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>12.335</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>8.81</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>14.652</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>4.447</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>29.773</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>6.855</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>206.228</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>10.77</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>3.591</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>25.079</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>3382.56</v>
       </c>
     </row>
@@ -2196,37 +2189,37 @@
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>12.868</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>9.026</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>16.467</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>4.367</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>28.177</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>6.855</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>206.662</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>17.45</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>3.404</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>24.288</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>3445.41</v>
       </c>
     </row>
@@ -2234,37 +2227,37 @@
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>13.951</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>9.637</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>18.198</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>4.238</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>29.083</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>5.946</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>210.404</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>15.48</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>3.463</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>28.816</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>3539.18</v>
       </c>
     </row>
@@ -2272,37 +2265,37 @@
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>11.848</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>6.914</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>12.902</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>2.951</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>25.477</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>3.813</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>193.49</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>9.99</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>2.745</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>22.349</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>2737.6</v>
       </c>
     </row>
@@ -2310,37 +2303,37 @@
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>12.041</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>6.601</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>11.976</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>2.922</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>26.797</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>3.852</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>207.241</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>10.49</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>3.079</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>20.192</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>2687.98</v>
       </c>
     </row>
@@ -2348,37 +2341,37 @@
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>13.676</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>8.167</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>15.644</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>3.5</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>29.645</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>4.148</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>238.803</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>11.35</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>3.217</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>22.179</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>3003.92</v>
       </c>
     </row>
@@ -2386,37 +2379,37 @@
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>13.18</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>7.79</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>14.792</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>3.35</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>26.807</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>3.931</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>242.236</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>10.28</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>3.158</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>21.387</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="n">
         <v>2938.32</v>
       </c>
     </row>
@@ -2424,37 +2417,37 @@
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>13.483</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>7.493</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>15.391</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>3.201</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>27.3</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>3.75</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>255.032</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>10.2</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>3.01</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>21.465</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="n">
         <v>2916.62</v>
       </c>
     </row>
@@ -2462,37 +2455,37 @@
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>13.545</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>7.814</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>15.681</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>3.051</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>25.665</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>3.69</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>281.503</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>10.74</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>3.315</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>21.612</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="n">
         <v>2929.61</v>
       </c>
     </row>
@@ -2500,37 +2493,37 @@
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>15.896</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>7.842</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>15.204</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>3.081</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>27.467</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>3.81</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>308.484</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>9.59</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>3.47</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>22.108</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="n">
         <v>2979.34</v>
       </c>
     </row>
@@ -2538,37 +2531,37 @@
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>15.935</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>8.304</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>16.503</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>3.231</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>27.76</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>4.32</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>305.568</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>11.08</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>3.34</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>22.939</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="n">
         <v>3085.49</v>
       </c>
     </row>
@@ -2576,37 +2569,37 @@
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>16.341</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>8.629</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>16.033</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>3.171</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>26.97</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>3.95</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>293.471</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>13.09</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>3.21</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>22.152</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="n">
         <v>3004.7</v>
       </c>
     </row>
@@ -2614,37 +2607,37 @@
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>17.163</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>8.462</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>17.042</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>3.251</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>27.11</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>4.2</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>313.213</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>12.29</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>3.28</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>22.138</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="n">
         <v>3100.49</v>
       </c>
     </row>
@@ -2652,37 +2645,37 @@
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>18.276</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>8.657999999999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>19.147</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>3.251</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>27.39</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>5.38</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>314.326</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>11.56</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>3.56</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>21.872</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>3250.03</v>
       </c>
     </row>
@@ -2690,37 +2683,37 @@
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>18.025</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>9.385999999999999</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>16.513</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>3.37</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>26.52</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>4.66</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>329.171</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>12.29</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>3.34</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>21.327</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="n">
         <v>3103.64</v>
       </c>
     </row>
@@ -2728,37 +2721,37 @@
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>18.189</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>15.231</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>17.149</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>3.35</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>27.5</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>5.05</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>339.288</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>12.66</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>3.58</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>22.482</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="n">
         <v>3159.17</v>
       </c>
     </row>
@@ -2766,37 +2759,37 @@
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>18.905</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>14.621</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>17.218</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>4.058</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>27.44</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>5.09</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>349.376</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>11.62</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>3.57</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>24.138</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="n">
         <v>3241.73</v>
       </c>
     </row>
@@ -2804,37 +2797,37 @@
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>21.875</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>15.811</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>16.738</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>4.058</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>29.98</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>5.08</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>380.603</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>12.25</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>3.38</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>27.858</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="n">
         <v>3222.51</v>
       </c>
     </row>
@@ -2842,37 +2835,37 @@
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>21.769</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>11.856</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>16.385</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>3.749</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>34.25</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>5.05</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>407.319</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>3.38</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>26.118</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="n">
         <v>3154.66</v>
       </c>
     </row>
@@ -2880,37 +2873,37 @@
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>23.92</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>10.242</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>16.307</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>3.36</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>37.79</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>4.96</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>436.34</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>7.98</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>3.28</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>26.654</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="n">
         <v>3117.18</v>
       </c>
     </row>
@@ -2918,41 +2911,41 @@
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>26.04</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>11.522</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>16.895</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>3.75</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>37.31</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>5.01</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>464.819</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>8.82</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>3.43</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>30.14</v>
       </c>
-      <c r="L62">
+      <c r="L62" t="n">
         <v>3192.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>